--- a/Project/Advertisement_REST_call_details_v3.xlsx
+++ b/Project/Advertisement_REST_call_details_v3.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kulkarni_an\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Assignments\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="19980" windowHeight="8070"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="15120" windowHeight="7410"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -204,7 +204,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -414,6 +414,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -449,6 +466,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -627,8 +661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C5:L24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Project/Advertisement_REST_call_details_v3.xlsx
+++ b/Project/Advertisement_REST_call_details_v3.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18201"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Assignments\Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kulkarni_an\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="15120" windowHeight="7410"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="19980" windowHeight="8070"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -204,7 +204,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -414,23 +414,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -466,23 +449,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -661,8 +627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C5:L24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Project/Advertisement_REST_call_details_v3.xlsx
+++ b/Project/Advertisement_REST_call_details_v3.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18201"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kulkarni_an\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Assignments\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="19980" windowHeight="8070"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="15120" windowHeight="7410"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -204,7 +204,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -237,7 +237,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor theme="6" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -269,7 +269,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -280,12 +280,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -293,6 +287,15 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -341,7 +344,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Blue Warm">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -349,34 +352,34 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="242852"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="ACCBF9"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="4A66AC"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="629DD1"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="297FD5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="7F8FA9"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="5AA2AE"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="9D90A0"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="9454C3"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="3EBBF0"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
@@ -414,6 +417,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -449,6 +469,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -627,8 +664,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C5:L24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -678,64 +715,64 @@
       <c r="J6" s="2"/>
     </row>
     <row r="7" spans="3:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="C7" s="3">
+      <c r="C7" s="7">
         <v>1</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2" t="s">
+      <c r="G7" s="8"/>
+      <c r="H7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I7" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="J7" s="2"/>
+      <c r="J7" s="8"/>
     </row>
     <row r="8" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C8" s="3">
+      <c r="C8" s="7">
         <v>2</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
+      <c r="G8" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
     </row>
     <row r="9" spans="3:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="C9" s="3">
+      <c r="C9" s="7">
         <v>3</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="G9" s="5"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
     </row>
     <row r="10" spans="3:10" ht="45" x14ac:dyDescent="0.25">
       <c r="C10" s="3">
@@ -761,25 +798,25 @@
       <c r="C11" s="3">
         <v>5</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H11" s="2" t="s">
+      <c r="G11" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="I11" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="J11" s="2"/>
+      <c r="J11" s="8"/>
     </row>
     <row r="12" spans="3:10" ht="90" x14ac:dyDescent="0.25">
       <c r="C12" s="3">
@@ -1018,44 +1055,44 @@
       <c r="J22" s="2"/>
     </row>
     <row r="23" spans="3:12" ht="120" x14ac:dyDescent="0.25">
-      <c r="C23" s="3">
+      <c r="C23" s="7">
         <v>17</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="E23" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="F23" s="5" t="s">
+      <c r="F23" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5" t="s">
+      <c r="G23" s="8"/>
+      <c r="H23" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
     </row>
     <row r="24" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C24" s="6">
+      <c r="C24" s="4">
         <v>18</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="D24" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="E24" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="F24" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="G24" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="7" t="s">
+      <c r="G24" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="5" t="s">
         <v>52</v>
       </c>
     </row>
